--- a/spliced/struggle/2023-04-06_17-43-23/accelerometer_selected.xlsx
+++ b/spliced/struggle/2023-04-06_17-43-23/accelerometer_selected.xlsx
@@ -452,222 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1987819671630859</v>
+        <v>0.2130537033081054</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2879692316055298</v>
+        <v>0.492556095123291</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.9282988905906676</v>
+        <v>-0.9500083923339844</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.2130537033081054</v>
+        <v>5.370540142059326</v>
       </c>
       <c r="B3" t="n">
-        <v>0.492556095123291</v>
+        <v>-2.71519660949707</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.9500083923339844</v>
+        <v>-10.77233219146728</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5.370540142059326</v>
+        <v>1.807073593139648</v>
       </c>
       <c r="B4" t="n">
-        <v>-2.71519660949707</v>
+        <v>1.692888975143433</v>
       </c>
       <c r="C4" t="n">
-        <v>-10.77233219146728</v>
+        <v>0.979395866394043</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.807073593139648</v>
+        <v>-1.115023136138916</v>
       </c>
       <c r="B5" t="n">
-        <v>1.692888975143433</v>
+        <v>-0.1916569471359253</v>
       </c>
       <c r="C5" t="n">
-        <v>0.979395866394043</v>
+        <v>-1.226519584655761</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-1.115023136138916</v>
+        <v>-0.6978027820587158</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.1916569471359253</v>
+        <v>-0.2956833839416504</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.226519584655761</v>
+        <v>0.6510324478149414</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.6978027820587158</v>
+        <v>-3.345348596572876</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.2956833839416504</v>
+        <v>1.023304224014282</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6510324478149414</v>
+        <v>2.694005012512207</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-3.345348596572876</v>
+        <v>-9.996002197265623</v>
       </c>
       <c r="B8" t="n">
-        <v>1.023304224014282</v>
+        <v>-0.0120857954025268</v>
       </c>
       <c r="C8" t="n">
-        <v>2.694005012512207</v>
+        <v>1.461801767349243</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-9.996002197265623</v>
+        <v>4.229874610900879</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.0120857954025268</v>
+        <v>-2.616225481033325</v>
       </c>
       <c r="C9" t="n">
-        <v>1.461801767349243</v>
+        <v>-11.63714218139648</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4.229874610900879</v>
+        <v>-5.585046291351318</v>
       </c>
       <c r="B10" t="n">
-        <v>-2.616225481033325</v>
+        <v>-1.405134916305542</v>
       </c>
       <c r="C10" t="n">
-        <v>-11.63714218139648</v>
+        <v>1.352597236633301</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-5.585046291351318</v>
+        <v>-3.109971046447754</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.405134916305542</v>
+        <v>-0.2804408073425293</v>
       </c>
       <c r="C11" t="n">
-        <v>1.352597236633301</v>
+        <v>-1.378412246704102</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-3.109971046447754</v>
+        <v>-6.216216564178467</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.2804408073425293</v>
+        <v>2.080293655395508</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.378412246704102</v>
+        <v>-6.55400562286377</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-6.216216564178467</v>
+        <v>-2.478143692016602</v>
       </c>
       <c r="B13" t="n">
-        <v>2.080293655395508</v>
+        <v>-0.5579037666320801</v>
       </c>
       <c r="C13" t="n">
-        <v>-6.55400562286377</v>
+        <v>-6.963788509368896</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-2.478143692016602</v>
+        <v>1.977913856506348</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.5579037666320801</v>
+        <v>1.696393609046936</v>
       </c>
       <c r="C14" t="n">
-        <v>-6.963788509368896</v>
+        <v>4.733741760253906</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.977913856506348</v>
+        <v>-1.786364078521728</v>
       </c>
       <c r="B15" t="n">
-        <v>1.696393609046936</v>
+        <v>-0.5252545475959778</v>
       </c>
       <c r="C15" t="n">
-        <v>4.733741760253906</v>
+        <v>-2.082462787628174</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-1.786364078521728</v>
+        <v>-3.566806316375732</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.5252545475959778</v>
+        <v>0.4948284029960632</v>
       </c>
       <c r="C16" t="n">
-        <v>-2.082462787628174</v>
+        <v>1.737120628356934</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-3.566806316375732</v>
+        <v>-6.714832305908203</v>
       </c>
       <c r="B17" t="n">
-        <v>0.4948284029960632</v>
+        <v>2.814615249633789</v>
       </c>
       <c r="C17" t="n">
-        <v>1.737120628356934</v>
+        <v>5.518161296844482</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-6.714832305908203</v>
+        <v>-4.827847480773926</v>
       </c>
       <c r="B18" t="n">
-        <v>2.814615249633789</v>
+        <v>-7.360194683074951</v>
       </c>
       <c r="C18" t="n">
-        <v>5.518161296844482</v>
+        <v>7.510563373565674</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-4.827847480773926</v>
+        <v>-1.930130958557129</v>
       </c>
       <c r="B19" t="n">
-        <v>-7.360194683074951</v>
+        <v>4.015055179595947</v>
       </c>
       <c r="C19" t="n">
-        <v>7.510563373565674</v>
+        <v>-5.047464370727539</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-1.930130958557129</v>
+        <v>-4.561958312988281</v>
       </c>
       <c r="B20" t="n">
-        <v>4.015055179595947</v>
+        <v>0.1262733936309814</v>
       </c>
       <c r="C20" t="n">
-        <v>-5.047464370727539</v>
+        <v>-1.993290901184082</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-4.561958312988281</v>
+        <v>-2.729169845581055</v>
       </c>
       <c r="B21" t="n">
-        <v>0.1262733936309814</v>
+        <v>3.059413433074951</v>
       </c>
       <c r="C21" t="n">
-        <v>-1.993290901184082</v>
+        <v>-4.533473014831543</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/struggle/2023-04-06_17-43-23/accelerometer_selected.xlsx
+++ b/spliced/struggle/2023-04-06_17-43-23/accelerometer_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2130537033081054</v>
+        <v>0.2804546356201172</v>
       </c>
       <c r="B2" t="n">
-        <v>0.492556095123291</v>
+        <v>0.4303635954856872</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.9500083923339844</v>
+        <v>-0.691750168800354</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5.370540142059326</v>
+        <v>0.1987819671630859</v>
       </c>
       <c r="B3" t="n">
-        <v>-2.71519660949707</v>
+        <v>0.2879692316055298</v>
       </c>
       <c r="C3" t="n">
-        <v>-10.77233219146728</v>
+        <v>-0.9282988905906676</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.807073593139648</v>
+        <v>0.2130537033081054</v>
       </c>
       <c r="B4" t="n">
-        <v>1.692888975143433</v>
+        <v>0.492556095123291</v>
       </c>
       <c r="C4" t="n">
-        <v>0.979395866394043</v>
+        <v>-0.9500083923339844</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-1.115023136138916</v>
+        <v>5.370540142059326</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.1916569471359253</v>
+        <v>-2.71519660949707</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.226519584655761</v>
+        <v>-10.77233219146728</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.6978027820587158</v>
+        <v>1.807073593139648</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.2956833839416504</v>
+        <v>1.692888975143433</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6510324478149414</v>
+        <v>0.979395866394043</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-3.345348596572876</v>
+        <v>-1.115023136138916</v>
       </c>
       <c r="B7" t="n">
-        <v>1.023304224014282</v>
+        <v>-0.1916569471359253</v>
       </c>
       <c r="C7" t="n">
-        <v>2.694005012512207</v>
+        <v>-1.226519584655761</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-9.996002197265623</v>
+        <v>-0.6978027820587158</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.0120857954025268</v>
+        <v>-0.2956833839416504</v>
       </c>
       <c r="C8" t="n">
-        <v>1.461801767349243</v>
+        <v>0.6510324478149414</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4.229874610900879</v>
+        <v>-3.345348596572876</v>
       </c>
       <c r="B9" t="n">
-        <v>-2.616225481033325</v>
+        <v>1.023304224014282</v>
       </c>
       <c r="C9" t="n">
-        <v>-11.63714218139648</v>
+        <v>2.694005012512207</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-5.585046291351318</v>
+        <v>-9.996002197265623</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.405134916305542</v>
+        <v>-0.0120857954025268</v>
       </c>
       <c r="C10" t="n">
-        <v>1.352597236633301</v>
+        <v>1.461801767349243</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-3.109971046447754</v>
+        <v>4.229874610900879</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.2804408073425293</v>
+        <v>-2.616225481033325</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.378412246704102</v>
+        <v>-11.63714218139648</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-6.216216564178467</v>
+        <v>-5.585046291351318</v>
       </c>
       <c r="B12" t="n">
-        <v>2.080293655395508</v>
+        <v>-1.405134916305542</v>
       </c>
       <c r="C12" t="n">
-        <v>-6.55400562286377</v>
+        <v>1.352597236633301</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-2.478143692016602</v>
+        <v>-3.109971046447754</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.5579037666320801</v>
+        <v>-0.2804408073425293</v>
       </c>
       <c r="C13" t="n">
-        <v>-6.963788509368896</v>
+        <v>-1.378412246704102</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1.977913856506348</v>
+        <v>-6.216216564178467</v>
       </c>
       <c r="B14" t="n">
-        <v>1.696393609046936</v>
+        <v>2.080293655395508</v>
       </c>
       <c r="C14" t="n">
-        <v>4.733741760253906</v>
+        <v>-6.55400562286377</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-1.786364078521728</v>
+        <v>-2.478143692016602</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.5252545475959778</v>
+        <v>-0.5579037666320801</v>
       </c>
       <c r="C15" t="n">
-        <v>-2.082462787628174</v>
+        <v>-6.963788509368896</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-3.566806316375732</v>
+        <v>1.977913856506348</v>
       </c>
       <c r="B16" t="n">
-        <v>0.4948284029960632</v>
+        <v>1.696393609046936</v>
       </c>
       <c r="C16" t="n">
-        <v>1.737120628356934</v>
+        <v>4.733741760253906</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-6.714832305908203</v>
+        <v>-1.786364078521728</v>
       </c>
       <c r="B17" t="n">
-        <v>2.814615249633789</v>
+        <v>-0.5252545475959778</v>
       </c>
       <c r="C17" t="n">
-        <v>5.518161296844482</v>
+        <v>-2.082462787628174</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-4.827847480773926</v>
+        <v>-3.566806316375732</v>
       </c>
       <c r="B18" t="n">
-        <v>-7.360194683074951</v>
+        <v>0.4948284029960632</v>
       </c>
       <c r="C18" t="n">
-        <v>7.510563373565674</v>
+        <v>1.737120628356934</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-1.930130958557129</v>
+        <v>-6.714832305908203</v>
       </c>
       <c r="B19" t="n">
-        <v>4.015055179595947</v>
+        <v>2.814615249633789</v>
       </c>
       <c r="C19" t="n">
-        <v>-5.047464370727539</v>
+        <v>5.518161296844482</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-4.561958312988281</v>
+        <v>-4.827847480773926</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1262733936309814</v>
+        <v>-7.360194683074951</v>
       </c>
       <c r="C20" t="n">
-        <v>-1.993290901184082</v>
+        <v>7.510563373565674</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>-1.930130958557129</v>
+      </c>
+      <c r="B21" t="n">
+        <v>4.015055179595947</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-5.047464370727539</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-4.561958312988281</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.1262733936309814</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-1.993290901184082</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
         <v>-2.729169845581055</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B23" t="n">
         <v>3.059413433074951</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C23" t="n">
         <v>-4.533473014831543</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-0.4514303207397461</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-0.07753515243530271</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-1.056098580360413</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1.037992477416992</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-1.273390769958496</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.4362349510192871</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.0754270553588867</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1.646718859672546</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.695090532302856</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.2560558319091797</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.3026316165924072</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.4233262538909912</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.6335611343383789</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.8106564879417419</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-1.443797469139099</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.09285736083984369</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.7357764840126038</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-1.646607518196106</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.0882749557495117</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.1726978719234466</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.9354652166366576</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.2656211853027344</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.4902379512786865</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.8409426212310791</v>
       </c>
     </row>
   </sheetData>
